--- a/page/eb11/t02/eb11-t02.xlsx
+++ b/page/eb11/t02/eb11-t02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\production\eb11\t02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\LIB-DSC-FS\Peter Logan\eb-corpus\production\eb11\t02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38435E93-7F28-4D35-81C1-785EC9D2A43F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5938124-92BB-4636-9CAB-A812271478F7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15855" windowHeight="11805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1650" yWindow="9525" windowWidth="23190" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="s05" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="525">
   <si>
     <t>image-fn.jp2</t>
   </si>
@@ -853,6 +853,753 @@
   </si>
   <si>
     <t>encyclopaediabri26chisrich_0870</t>
+  </si>
+  <si>
+    <t>eb-t02-0001</t>
+  </si>
+  <si>
+    <t>eb-t02-0002</t>
+  </si>
+  <si>
+    <t>eb-t02-0003</t>
+  </si>
+  <si>
+    <t>eb-t02-0004</t>
+  </si>
+  <si>
+    <t>eb-t02-0005</t>
+  </si>
+  <si>
+    <t>eb-t02-0006</t>
+  </si>
+  <si>
+    <t>eb-t02-0007</t>
+  </si>
+  <si>
+    <t>eb-t02-0008</t>
+  </si>
+  <si>
+    <t>eb-t02-0009</t>
+  </si>
+  <si>
+    <t>eb-t02-0010</t>
+  </si>
+  <si>
+    <t>eb-t02-0011</t>
+  </si>
+  <si>
+    <t>eb-t02-0012</t>
+  </si>
+  <si>
+    <t>eb-t02-0013</t>
+  </si>
+  <si>
+    <t>eb-t02-0014</t>
+  </si>
+  <si>
+    <t>eb-t02-0015</t>
+  </si>
+  <si>
+    <t>eb-t02-0016</t>
+  </si>
+  <si>
+    <t>eb-t02-0017</t>
+  </si>
+  <si>
+    <t>eb-t02-0018</t>
+  </si>
+  <si>
+    <t>eb-t02-0019</t>
+  </si>
+  <si>
+    <t>eb-t02-0020</t>
+  </si>
+  <si>
+    <t>eb-t02-0021</t>
+  </si>
+  <si>
+    <t>eb-t02-0022</t>
+  </si>
+  <si>
+    <t>eb-t02-0023</t>
+  </si>
+  <si>
+    <t>eb-t02-0024</t>
+  </si>
+  <si>
+    <t>eb-t02-0025</t>
+  </si>
+  <si>
+    <t>eb-t02-0026</t>
+  </si>
+  <si>
+    <t>eb-t02-0027</t>
+  </si>
+  <si>
+    <t>eb-t02-0028</t>
+  </si>
+  <si>
+    <t>eb-t02-0029</t>
+  </si>
+  <si>
+    <t>eb-t02-0030</t>
+  </si>
+  <si>
+    <t>eb-t02-0031</t>
+  </si>
+  <si>
+    <t>eb-t02-0032</t>
+  </si>
+  <si>
+    <t>eb-t02-0033</t>
+  </si>
+  <si>
+    <t>eb-t02-0034</t>
+  </si>
+  <si>
+    <t>eb-t02-0035</t>
+  </si>
+  <si>
+    <t>eb-t02-0036</t>
+  </si>
+  <si>
+    <t>eb-t02-0037</t>
+  </si>
+  <si>
+    <t>eb-t02-0038</t>
+  </si>
+  <si>
+    <t>eb-t02-0039</t>
+  </si>
+  <si>
+    <t>eb-t02-0040</t>
+  </si>
+  <si>
+    <t>eb-t02-0041</t>
+  </si>
+  <si>
+    <t>eb-t02-0042</t>
+  </si>
+  <si>
+    <t>eb-t02-0043</t>
+  </si>
+  <si>
+    <t>eb-t02-0044</t>
+  </si>
+  <si>
+    <t>eb-t02-0045</t>
+  </si>
+  <si>
+    <t>eb-t02-0046</t>
+  </si>
+  <si>
+    <t>eb-t02-0047</t>
+  </si>
+  <si>
+    <t>eb-t02-0048</t>
+  </si>
+  <si>
+    <t>eb-t02-0049</t>
+  </si>
+  <si>
+    <t>eb-t02-0050</t>
+  </si>
+  <si>
+    <t>eb-t02-0051</t>
+  </si>
+  <si>
+    <t>eb-t02-0052</t>
+  </si>
+  <si>
+    <t>eb-t02-0053</t>
+  </si>
+  <si>
+    <t>eb-t02-0054</t>
+  </si>
+  <si>
+    <t>eb-t02-0055</t>
+  </si>
+  <si>
+    <t>eb-t02-0056</t>
+  </si>
+  <si>
+    <t>eb-t02-0057</t>
+  </si>
+  <si>
+    <t>eb-t02-0058</t>
+  </si>
+  <si>
+    <t>eb-t02-0059</t>
+  </si>
+  <si>
+    <t>eb-t02-0060</t>
+  </si>
+  <si>
+    <t>eb-t02-0061</t>
+  </si>
+  <si>
+    <t>eb-t02-0062</t>
+  </si>
+  <si>
+    <t>eb-t02-0063</t>
+  </si>
+  <si>
+    <t>eb-t02-0064</t>
+  </si>
+  <si>
+    <t>eb-t02-0065</t>
+  </si>
+  <si>
+    <t>eb-t02-0066</t>
+  </si>
+  <si>
+    <t>eb-t02-0067</t>
+  </si>
+  <si>
+    <t>eb-t02-0068</t>
+  </si>
+  <si>
+    <t>eb-t02-0069</t>
+  </si>
+  <si>
+    <t>eb-t02-0070</t>
+  </si>
+  <si>
+    <t>eb-t02-0071</t>
+  </si>
+  <si>
+    <t>eb-t02-0072</t>
+  </si>
+  <si>
+    <t>eb-t02-0073</t>
+  </si>
+  <si>
+    <t>eb-t02-0074</t>
+  </si>
+  <si>
+    <t>eb-t02-0075</t>
+  </si>
+  <si>
+    <t>eb-t02-0076</t>
+  </si>
+  <si>
+    <t>eb-t02-0077</t>
+  </si>
+  <si>
+    <t>eb-t02-0078</t>
+  </si>
+  <si>
+    <t>eb-t02-0079</t>
+  </si>
+  <si>
+    <t>eb-t02-0080</t>
+  </si>
+  <si>
+    <t>eb-t02-0081</t>
+  </si>
+  <si>
+    <t>eb-t02-0082</t>
+  </si>
+  <si>
+    <t>eb-t02-0083</t>
+  </si>
+  <si>
+    <t>eb-t02-0084</t>
+  </si>
+  <si>
+    <t>eb-t02-0085</t>
+  </si>
+  <si>
+    <t>eb-t02-0086</t>
+  </si>
+  <si>
+    <t>eb-t02-0087</t>
+  </si>
+  <si>
+    <t>eb-t02-0088</t>
+  </si>
+  <si>
+    <t>eb-t02-0089</t>
+  </si>
+  <si>
+    <t>eb-t02-0090</t>
+  </si>
+  <si>
+    <t>eb-t02-0091</t>
+  </si>
+  <si>
+    <t>eb-t02-0092</t>
+  </si>
+  <si>
+    <t>eb-t02-0093</t>
+  </si>
+  <si>
+    <t>eb-t02-0094</t>
+  </si>
+  <si>
+    <t>eb-t02-0095</t>
+  </si>
+  <si>
+    <t>eb-t02-0096</t>
+  </si>
+  <si>
+    <t>eb-t02-0097</t>
+  </si>
+  <si>
+    <t>eb-t02-0098</t>
+  </si>
+  <si>
+    <t>eb-t02-0099</t>
+  </si>
+  <si>
+    <t>eb-t02-0100</t>
+  </si>
+  <si>
+    <t>eb-t02-0101</t>
+  </si>
+  <si>
+    <t>eb-t02-0102</t>
+  </si>
+  <si>
+    <t>eb-t02-0103</t>
+  </si>
+  <si>
+    <t>eb-t02-0104</t>
+  </si>
+  <si>
+    <t>eb-t02-0105</t>
+  </si>
+  <si>
+    <t>eb-t02-0106</t>
+  </si>
+  <si>
+    <t>eb-t02-0107</t>
+  </si>
+  <si>
+    <t>eb-t02-0108</t>
+  </si>
+  <si>
+    <t>eb-t02-0109</t>
+  </si>
+  <si>
+    <t>eb-t02-0110</t>
+  </si>
+  <si>
+    <t>eb-t02-0111</t>
+  </si>
+  <si>
+    <t>eb-t02-0112</t>
+  </si>
+  <si>
+    <t>eb-t02-0113</t>
+  </si>
+  <si>
+    <t>eb-t02-0114</t>
+  </si>
+  <si>
+    <t>eb-t02-0115</t>
+  </si>
+  <si>
+    <t>eb-t02-0116</t>
+  </si>
+  <si>
+    <t>eb-t02-0117</t>
+  </si>
+  <si>
+    <t>eb-t02-0118</t>
+  </si>
+  <si>
+    <t>eb-t02-0119</t>
+  </si>
+  <si>
+    <t>eb-t02-0120</t>
+  </si>
+  <si>
+    <t>eb-t02-0121</t>
+  </si>
+  <si>
+    <t>eb-t02-0122</t>
+  </si>
+  <si>
+    <t>eb-t02-0123</t>
+  </si>
+  <si>
+    <t>eb-t02-0124</t>
+  </si>
+  <si>
+    <t>eb-t02-0125</t>
+  </si>
+  <si>
+    <t>eb-t02-0126</t>
+  </si>
+  <si>
+    <t>eb-t02-0127</t>
+  </si>
+  <si>
+    <t>eb-t02-0128</t>
+  </si>
+  <si>
+    <t>eb-t02-0129</t>
+  </si>
+  <si>
+    <t>eb-t02-0130</t>
+  </si>
+  <si>
+    <t>eb-t02-0131</t>
+  </si>
+  <si>
+    <t>eb-t02-0132</t>
+  </si>
+  <si>
+    <t>eb-t02-0133</t>
+  </si>
+  <si>
+    <t>eb-t02-0134</t>
+  </si>
+  <si>
+    <t>eb-t02-0135</t>
+  </si>
+  <si>
+    <t>eb-t02-0136</t>
+  </si>
+  <si>
+    <t>eb-t02-0137</t>
+  </si>
+  <si>
+    <t>eb-t02-0138</t>
+  </si>
+  <si>
+    <t>eb-t02-0139</t>
+  </si>
+  <si>
+    <t>eb-t02-0140</t>
+  </si>
+  <si>
+    <t>eb-t02-0141</t>
+  </si>
+  <si>
+    <t>eb-t02-0142</t>
+  </si>
+  <si>
+    <t>eb-t02-0143</t>
+  </si>
+  <si>
+    <t>eb-t02-0144</t>
+  </si>
+  <si>
+    <t>eb-t02-0145</t>
+  </si>
+  <si>
+    <t>eb-t02-0146</t>
+  </si>
+  <si>
+    <t>eb-t02-0147</t>
+  </si>
+  <si>
+    <t>eb-t02-0148</t>
+  </si>
+  <si>
+    <t>eb-t02-0149</t>
+  </si>
+  <si>
+    <t>eb-t02-0150</t>
+  </si>
+  <si>
+    <t>eb-t02-0151</t>
+  </si>
+  <si>
+    <t>eb-t02-0152</t>
+  </si>
+  <si>
+    <t>eb-t02-0153</t>
+  </si>
+  <si>
+    <t>eb-t02-0154</t>
+  </si>
+  <si>
+    <t>eb-t02-0155</t>
+  </si>
+  <si>
+    <t>eb-t02-0156</t>
+  </si>
+  <si>
+    <t>eb-t02-0157</t>
+  </si>
+  <si>
+    <t>eb-t02-0158</t>
+  </si>
+  <si>
+    <t>eb-t02-0159</t>
+  </si>
+  <si>
+    <t>eb-t02-0160</t>
+  </si>
+  <si>
+    <t>eb-t02-0161</t>
+  </si>
+  <si>
+    <t>eb-t02-0162</t>
+  </si>
+  <si>
+    <t>eb-t02-0163</t>
+  </si>
+  <si>
+    <t>eb-t02-0164</t>
+  </si>
+  <si>
+    <t>eb-t02-0165</t>
+  </si>
+  <si>
+    <t>eb-t02-0166</t>
+  </si>
+  <si>
+    <t>eb-t02-0167</t>
+  </si>
+  <si>
+    <t>eb-t02-0168</t>
+  </si>
+  <si>
+    <t>eb-t02-0169</t>
+  </si>
+  <si>
+    <t>eb-t02-0170</t>
+  </si>
+  <si>
+    <t>eb-t02-0171</t>
+  </si>
+  <si>
+    <t>eb-t02-0172</t>
+  </si>
+  <si>
+    <t>eb-t02-0173</t>
+  </si>
+  <si>
+    <t>eb-t02-0174</t>
+  </si>
+  <si>
+    <t>eb-t02-0175</t>
+  </si>
+  <si>
+    <t>eb-t02-0176</t>
+  </si>
+  <si>
+    <t>eb-t02-0177</t>
+  </si>
+  <si>
+    <t>eb-t02-0178</t>
+  </si>
+  <si>
+    <t>eb-t02-0179</t>
+  </si>
+  <si>
+    <t>eb-t02-0180</t>
+  </si>
+  <si>
+    <t>eb-t02-0181</t>
+  </si>
+  <si>
+    <t>eb-t02-0182</t>
+  </si>
+  <si>
+    <t>eb-t02-0183</t>
+  </si>
+  <si>
+    <t>eb-t02-0184</t>
+  </si>
+  <si>
+    <t>eb-t02-0185</t>
+  </si>
+  <si>
+    <t>eb-t02-0186</t>
+  </si>
+  <si>
+    <t>eb-t02-0187</t>
+  </si>
+  <si>
+    <t>eb-t02-0188</t>
+  </si>
+  <si>
+    <t>eb-t02-0189</t>
+  </si>
+  <si>
+    <t>eb-t02-0190</t>
+  </si>
+  <si>
+    <t>eb-t02-0191</t>
+  </si>
+  <si>
+    <t>eb-t02-0192</t>
+  </si>
+  <si>
+    <t>eb-t02-0193</t>
+  </si>
+  <si>
+    <t>eb-t02-0194</t>
+  </si>
+  <si>
+    <t>eb-t02-0195</t>
+  </si>
+  <si>
+    <t>eb-t02-0196</t>
+  </si>
+  <si>
+    <t>eb-t02-0197</t>
+  </si>
+  <si>
+    <t>eb-t02-0198</t>
+  </si>
+  <si>
+    <t>eb-t02-0199</t>
+  </si>
+  <si>
+    <t>eb-t02-0200</t>
+  </si>
+  <si>
+    <t>eb-t02-0201</t>
+  </si>
+  <si>
+    <t>eb-t02-0202</t>
+  </si>
+  <si>
+    <t>eb-t02-0203</t>
+  </si>
+  <si>
+    <t>eb-t02-0204</t>
+  </si>
+  <si>
+    <t>eb-t02-0205</t>
+  </si>
+  <si>
+    <t>eb-t02-0206</t>
+  </si>
+  <si>
+    <t>eb-t02-0207</t>
+  </si>
+  <si>
+    <t>eb-t02-0208</t>
+  </si>
+  <si>
+    <t>eb-t02-0209</t>
+  </si>
+  <si>
+    <t>eb-t02-0210</t>
+  </si>
+  <si>
+    <t>eb-t02-0211</t>
+  </si>
+  <si>
+    <t>eb-t02-0212</t>
+  </si>
+  <si>
+    <t>eb-t02-0213</t>
+  </si>
+  <si>
+    <t>eb-t02-0214</t>
+  </si>
+  <si>
+    <t>eb-t02-0215</t>
+  </si>
+  <si>
+    <t>eb-t02-0216</t>
+  </si>
+  <si>
+    <t>eb-t02-0217</t>
+  </si>
+  <si>
+    <t>eb-t02-0218</t>
+  </si>
+  <si>
+    <t>eb-t02-0219</t>
+  </si>
+  <si>
+    <t>eb-t02-0220</t>
+  </si>
+  <si>
+    <t>eb-t02-0221</t>
+  </si>
+  <si>
+    <t>eb-t02-0222</t>
+  </si>
+  <si>
+    <t>eb-t02-0223</t>
+  </si>
+  <si>
+    <t>eb-t02-0224</t>
+  </si>
+  <si>
+    <t>eb-t02-0225</t>
+  </si>
+  <si>
+    <t>eb-t02-0226</t>
+  </si>
+  <si>
+    <t>eb-t02-0227</t>
+  </si>
+  <si>
+    <t>eb-t02-0228</t>
+  </si>
+  <si>
+    <t>eb-t02-0229</t>
+  </si>
+  <si>
+    <t>eb-t02-0230</t>
+  </si>
+  <si>
+    <t>eb-t02-0231</t>
+  </si>
+  <si>
+    <t>eb-t02-0232</t>
+  </si>
+  <si>
+    <t>eb-t02-0233</t>
+  </si>
+  <si>
+    <t>eb-t02-0234</t>
+  </si>
+  <si>
+    <t>eb-t02-0235</t>
+  </si>
+  <si>
+    <t>eb-t02-0236</t>
+  </si>
+  <si>
+    <t>eb-t02-0237</t>
+  </si>
+  <si>
+    <t>eb-t02-0238</t>
+  </si>
+  <si>
+    <t>eb-t02-0239</t>
+  </si>
+  <si>
+    <t>eb-t02-0240</t>
+  </si>
+  <si>
+    <t>eb-t02-0241</t>
+  </si>
+  <si>
+    <t>eb-t02-0242</t>
+  </si>
+  <si>
+    <t>eb-t02-0243</t>
+  </si>
+  <si>
+    <t>eb-t02-0244</t>
+  </si>
+  <si>
+    <t>eb-t02-0245</t>
+  </si>
+  <si>
+    <t>eb-t02-0246</t>
+  </si>
+  <si>
+    <t>eb-t02-0247</t>
+  </si>
+  <si>
+    <t>eb-t02-0248</t>
+  </si>
+  <si>
+    <t>mh</t>
   </si>
 </sst>
 </file>
@@ -1234,11 +1981,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L263"/>
+  <dimension ref="A1:L278"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1302,7 +2049,15 @@
       <c r="D2">
         <v>570</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="E2" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="F2" t="s">
+        <v>524</v>
+      </c>
+      <c r="G2" s="11">
+        <v>43605</v>
+      </c>
       <c r="H2" s="13"/>
       <c r="I2" s="16"/>
       <c r="J2" s="5"/>
@@ -1320,7 +2075,9 @@
       <c r="D3">
         <v>571</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>277</v>
+      </c>
       <c r="H3" s="13"/>
       <c r="I3" s="16"/>
       <c r="J3" s="5"/>
@@ -1338,7 +2095,9 @@
       <c r="D4">
         <v>572</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>278</v>
+      </c>
       <c r="H4" s="13"/>
       <c r="I4" s="16"/>
       <c r="J4" s="5"/>
@@ -1356,7 +2115,9 @@
       <c r="D5">
         <v>573</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>279</v>
+      </c>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
       <c r="I5" s="16"/>
@@ -1375,7 +2136,9 @@
       <c r="D6">
         <v>574</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>280</v>
+      </c>
       <c r="H6" s="13"/>
       <c r="I6" s="16"/>
       <c r="J6" s="5"/>
@@ -1393,7 +2156,9 @@
       <c r="D7">
         <v>575</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>281</v>
+      </c>
       <c r="H7" s="13"/>
       <c r="I7" s="16"/>
       <c r="J7" s="5"/>
@@ -1411,7 +2176,9 @@
       <c r="D8">
         <v>576</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>282</v>
+      </c>
       <c r="H8" s="13"/>
       <c r="I8" s="16"/>
       <c r="J8" s="5"/>
@@ -1429,7 +2196,9 @@
       <c r="D9">
         <v>577</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>283</v>
+      </c>
       <c r="H9" s="13"/>
       <c r="I9" s="16"/>
       <c r="J9" s="5"/>
@@ -1447,7 +2216,9 @@
       <c r="D10">
         <v>578</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>284</v>
+      </c>
       <c r="H10" s="13"/>
       <c r="I10" s="16"/>
       <c r="J10" s="5"/>
@@ -1465,7 +2236,9 @@
       <c r="D11">
         <v>579</v>
       </c>
-      <c r="E11" s="5"/>
+      <c r="E11" s="5" t="s">
+        <v>285</v>
+      </c>
       <c r="H11" s="13"/>
       <c r="I11" s="16"/>
       <c r="J11" s="5"/>
@@ -1483,7 +2256,9 @@
       <c r="D12">
         <v>580</v>
       </c>
-      <c r="E12" s="5"/>
+      <c r="E12" s="5" t="s">
+        <v>286</v>
+      </c>
       <c r="H12" s="13"/>
       <c r="I12" s="16"/>
       <c r="J12" s="5"/>
@@ -1501,7 +2276,9 @@
       <c r="D13">
         <v>581</v>
       </c>
-      <c r="E13" s="5"/>
+      <c r="E13" s="5" t="s">
+        <v>287</v>
+      </c>
       <c r="H13" s="13"/>
       <c r="I13" s="16"/>
       <c r="J13" s="5"/>
@@ -1519,7 +2296,9 @@
       <c r="D14">
         <v>582</v>
       </c>
-      <c r="E14" s="5"/>
+      <c r="E14" s="5" t="s">
+        <v>288</v>
+      </c>
       <c r="H14" s="13"/>
       <c r="I14" s="16"/>
       <c r="J14" s="5"/>
@@ -1537,7 +2316,9 @@
       <c r="D15">
         <v>583</v>
       </c>
-      <c r="E15" s="5"/>
+      <c r="E15" s="5" t="s">
+        <v>289</v>
+      </c>
       <c r="H15" s="13"/>
       <c r="I15" s="16"/>
       <c r="J15" s="5"/>
@@ -1555,7 +2336,9 @@
       <c r="D16">
         <v>584</v>
       </c>
-      <c r="E16" s="5"/>
+      <c r="E16" s="5" t="s">
+        <v>290</v>
+      </c>
       <c r="H16" s="13"/>
       <c r="I16" s="16"/>
       <c r="J16" s="5"/>
@@ -1573,7 +2356,9 @@
       <c r="D17">
         <v>585</v>
       </c>
-      <c r="E17" s="5"/>
+      <c r="E17" s="5" t="s">
+        <v>291</v>
+      </c>
       <c r="H17" s="13"/>
       <c r="I17" s="16"/>
       <c r="J17" s="5"/>
@@ -1591,7 +2376,9 @@
       <c r="D18">
         <v>586</v>
       </c>
-      <c r="E18" s="5"/>
+      <c r="E18" s="5" t="s">
+        <v>292</v>
+      </c>
       <c r="H18" s="13"/>
       <c r="I18" s="16"/>
       <c r="J18" s="5"/>
@@ -1609,7 +2396,9 @@
       <c r="D19">
         <v>587</v>
       </c>
-      <c r="E19" s="5"/>
+      <c r="E19" s="5" t="s">
+        <v>293</v>
+      </c>
       <c r="H19" s="13"/>
       <c r="I19" s="16"/>
       <c r="J19" s="5"/>
@@ -1627,7 +2416,9 @@
       <c r="D20">
         <v>588</v>
       </c>
-      <c r="E20" s="5"/>
+      <c r="E20" s="5" t="s">
+        <v>294</v>
+      </c>
       <c r="H20" s="13"/>
       <c r="I20" s="16"/>
       <c r="J20" s="5"/>
@@ -1645,7 +2436,9 @@
       <c r="D21">
         <v>589</v>
       </c>
-      <c r="E21" s="5"/>
+      <c r="E21" s="5" t="s">
+        <v>295</v>
+      </c>
       <c r="H21" s="13"/>
       <c r="I21" s="16"/>
       <c r="J21" s="5"/>
@@ -1663,7 +2456,9 @@
       <c r="D22">
         <v>590</v>
       </c>
-      <c r="E22" s="5"/>
+      <c r="E22" s="5" t="s">
+        <v>296</v>
+      </c>
       <c r="H22" s="13"/>
       <c r="I22" s="16"/>
       <c r="J22" s="5"/>
@@ -1681,7 +2476,9 @@
       <c r="D23">
         <v>591</v>
       </c>
-      <c r="E23" s="5"/>
+      <c r="E23" s="5" t="s">
+        <v>297</v>
+      </c>
       <c r="H23" s="13"/>
       <c r="I23" s="16"/>
       <c r="J23" s="5"/>
@@ -1699,7 +2496,9 @@
       <c r="D24">
         <v>592</v>
       </c>
-      <c r="E24" s="5"/>
+      <c r="E24" s="5" t="s">
+        <v>298</v>
+      </c>
       <c r="H24" s="13"/>
       <c r="I24" s="16"/>
       <c r="J24" s="5"/>
@@ -1717,7 +2516,9 @@
       <c r="D25">
         <v>593</v>
       </c>
-      <c r="E25" s="5"/>
+      <c r="E25" s="5" t="s">
+        <v>299</v>
+      </c>
       <c r="H25" s="13"/>
       <c r="I25" s="16"/>
       <c r="J25" s="5"/>
@@ -1735,7 +2536,9 @@
       <c r="D26">
         <v>594</v>
       </c>
-      <c r="E26" s="5"/>
+      <c r="E26" s="5" t="s">
+        <v>300</v>
+      </c>
       <c r="H26" s="13"/>
       <c r="I26" s="16"/>
       <c r="J26" s="5"/>
@@ -1753,7 +2556,9 @@
       <c r="D27">
         <v>595</v>
       </c>
-      <c r="E27" s="5"/>
+      <c r="E27" s="5" t="s">
+        <v>301</v>
+      </c>
       <c r="H27" s="13"/>
       <c r="I27" s="16"/>
       <c r="J27" s="5"/>
@@ -1771,7 +2576,9 @@
       <c r="D28">
         <v>596</v>
       </c>
-      <c r="E28" s="5"/>
+      <c r="E28" s="5" t="s">
+        <v>302</v>
+      </c>
       <c r="H28" s="13"/>
       <c r="I28" s="16"/>
       <c r="J28" s="5"/>
@@ -1789,7 +2596,9 @@
       <c r="D29">
         <v>597</v>
       </c>
-      <c r="E29" s="5"/>
+      <c r="E29" s="5" t="s">
+        <v>303</v>
+      </c>
       <c r="H29" s="13"/>
       <c r="I29" s="16"/>
       <c r="J29" s="5"/>
@@ -1807,7 +2616,9 @@
       <c r="D30">
         <v>598</v>
       </c>
-      <c r="E30" s="5"/>
+      <c r="E30" s="5" t="s">
+        <v>304</v>
+      </c>
       <c r="H30" s="13"/>
       <c r="I30" s="16"/>
       <c r="J30" s="5"/>
@@ -1825,7 +2636,9 @@
       <c r="D31">
         <v>599</v>
       </c>
-      <c r="E31" s="5"/>
+      <c r="E31" s="5" t="s">
+        <v>305</v>
+      </c>
       <c r="H31" s="13"/>
       <c r="I31" s="16"/>
       <c r="J31" s="5"/>
@@ -1843,7 +2656,9 @@
       <c r="D32">
         <v>600</v>
       </c>
-      <c r="E32" s="5"/>
+      <c r="E32" s="5" t="s">
+        <v>306</v>
+      </c>
       <c r="H32" s="13"/>
       <c r="I32" s="16"/>
       <c r="J32" s="5"/>
@@ -1861,7 +2676,9 @@
       <c r="D33">
         <v>601</v>
       </c>
-      <c r="E33" s="5"/>
+      <c r="E33" s="5" t="s">
+        <v>307</v>
+      </c>
       <c r="H33" s="13"/>
       <c r="I33" s="16"/>
       <c r="J33" s="5"/>
@@ -1879,7 +2696,9 @@
       <c r="D34">
         <v>602</v>
       </c>
-      <c r="E34" s="5"/>
+      <c r="E34" s="5" t="s">
+        <v>308</v>
+      </c>
       <c r="H34" s="13"/>
       <c r="I34" s="16"/>
       <c r="J34" s="5"/>
@@ -1897,7 +2716,9 @@
       <c r="D35">
         <v>603</v>
       </c>
-      <c r="E35" s="5"/>
+      <c r="E35" s="5" t="s">
+        <v>309</v>
+      </c>
       <c r="H35" s="13"/>
       <c r="I35" s="16"/>
       <c r="J35" s="5"/>
@@ -1915,7 +2736,9 @@
       <c r="D36">
         <v>604</v>
       </c>
-      <c r="E36" s="5"/>
+      <c r="E36" s="5" t="s">
+        <v>310</v>
+      </c>
       <c r="H36" s="13"/>
       <c r="I36" s="16"/>
       <c r="J36" s="5"/>
@@ -1933,7 +2756,9 @@
       <c r="D37">
         <v>605</v>
       </c>
-      <c r="E37" s="5"/>
+      <c r="E37" s="5" t="s">
+        <v>311</v>
+      </c>
       <c r="H37" s="13"/>
       <c r="I37" s="16"/>
       <c r="J37" s="5"/>
@@ -1951,7 +2776,9 @@
       <c r="D38">
         <v>606</v>
       </c>
-      <c r="E38" s="5"/>
+      <c r="E38" s="5" t="s">
+        <v>312</v>
+      </c>
       <c r="H38" s="13"/>
       <c r="I38" s="16"/>
       <c r="J38" s="5"/>
@@ -1969,7 +2796,9 @@
       <c r="D39">
         <v>607</v>
       </c>
-      <c r="E39" s="5"/>
+      <c r="E39" s="5" t="s">
+        <v>313</v>
+      </c>
       <c r="H39" s="13"/>
       <c r="I39" s="16"/>
       <c r="J39" s="5"/>
@@ -1987,7 +2816,9 @@
       <c r="D40">
         <v>608</v>
       </c>
-      <c r="E40" s="5"/>
+      <c r="E40" s="5" t="s">
+        <v>314</v>
+      </c>
       <c r="H40" s="13"/>
       <c r="I40" s="16"/>
       <c r="J40" s="5"/>
@@ -2005,7 +2836,9 @@
       <c r="D41">
         <v>609</v>
       </c>
-      <c r="E41" s="5"/>
+      <c r="E41" s="5" t="s">
+        <v>315</v>
+      </c>
       <c r="H41" s="13"/>
       <c r="I41" s="16"/>
       <c r="J41" s="5"/>
@@ -2023,7 +2856,9 @@
       <c r="D42">
         <v>610</v>
       </c>
-      <c r="E42" s="5"/>
+      <c r="E42" s="5" t="s">
+        <v>316</v>
+      </c>
       <c r="H42" s="13"/>
       <c r="I42" s="16"/>
       <c r="J42" s="5"/>
@@ -2041,7 +2876,9 @@
       <c r="D43">
         <v>611</v>
       </c>
-      <c r="E43" s="5"/>
+      <c r="E43" s="5" t="s">
+        <v>317</v>
+      </c>
       <c r="H43" s="13"/>
       <c r="I43" s="16"/>
       <c r="J43" s="5"/>
@@ -2059,7 +2896,9 @@
       <c r="D44">
         <v>612</v>
       </c>
-      <c r="E44" s="5"/>
+      <c r="E44" s="5" t="s">
+        <v>318</v>
+      </c>
       <c r="H44" s="13"/>
       <c r="I44" s="16"/>
       <c r="J44" s="5"/>
@@ -2077,7 +2916,9 @@
       <c r="D45">
         <v>613</v>
       </c>
-      <c r="E45" s="5"/>
+      <c r="E45" s="5" t="s">
+        <v>319</v>
+      </c>
       <c r="H45" s="13"/>
       <c r="I45" s="16"/>
       <c r="J45" s="5"/>
@@ -2095,7 +2936,9 @@
       <c r="D46">
         <v>614</v>
       </c>
-      <c r="E46" s="5"/>
+      <c r="E46" s="5" t="s">
+        <v>320</v>
+      </c>
       <c r="H46" s="13"/>
       <c r="I46" s="16"/>
       <c r="J46" s="5"/>
@@ -2113,7 +2956,9 @@
       <c r="D47">
         <v>615</v>
       </c>
-      <c r="E47" s="5"/>
+      <c r="E47" s="5" t="s">
+        <v>321</v>
+      </c>
       <c r="H47" s="13"/>
       <c r="I47" s="16"/>
       <c r="J47" s="5"/>
@@ -2131,7 +2976,9 @@
       <c r="D48">
         <v>616</v>
       </c>
-      <c r="E48" s="5"/>
+      <c r="E48" s="5" t="s">
+        <v>322</v>
+      </c>
       <c r="H48" s="13"/>
       <c r="I48" s="16"/>
       <c r="J48" s="5"/>
@@ -2149,7 +2996,9 @@
       <c r="D49">
         <v>617</v>
       </c>
-      <c r="E49" s="5"/>
+      <c r="E49" s="5" t="s">
+        <v>323</v>
+      </c>
       <c r="H49" s="13"/>
       <c r="I49" s="16"/>
       <c r="J49" s="5"/>
@@ -2167,7 +3016,9 @@
       <c r="D50">
         <v>618</v>
       </c>
-      <c r="E50" s="5"/>
+      <c r="E50" s="5" t="s">
+        <v>324</v>
+      </c>
       <c r="H50" s="13"/>
       <c r="I50" s="16"/>
       <c r="J50" s="5"/>
@@ -2185,7 +3036,9 @@
       <c r="D51">
         <v>619</v>
       </c>
-      <c r="E51" s="5"/>
+      <c r="E51" s="5" t="s">
+        <v>325</v>
+      </c>
       <c r="H51" s="13"/>
       <c r="I51" s="16"/>
       <c r="J51" s="5"/>
@@ -2203,7 +3056,9 @@
       <c r="D52">
         <v>620</v>
       </c>
-      <c r="E52" s="5"/>
+      <c r="E52" s="5" t="s">
+        <v>326</v>
+      </c>
       <c r="H52" s="13"/>
       <c r="I52" s="16"/>
       <c r="J52" s="5"/>
@@ -2257,7 +3112,9 @@
       <c r="D55">
         <v>621</v>
       </c>
-      <c r="E55" s="5"/>
+      <c r="E55" s="5" t="s">
+        <v>327</v>
+      </c>
       <c r="H55" s="13"/>
       <c r="I55" s="16"/>
       <c r="J55" s="5"/>
@@ -2275,7 +3132,9 @@
       <c r="D56">
         <v>622</v>
       </c>
-      <c r="E56" s="5"/>
+      <c r="E56" s="5" t="s">
+        <v>328</v>
+      </c>
       <c r="H56" s="13"/>
       <c r="I56" s="16"/>
       <c r="J56" s="5"/>
@@ -2293,7 +3152,9 @@
       <c r="D57">
         <v>623</v>
       </c>
-      <c r="E57" s="5"/>
+      <c r="E57" s="5" t="s">
+        <v>329</v>
+      </c>
       <c r="H57" s="13"/>
       <c r="I57" s="16"/>
       <c r="J57" s="5"/>
@@ -2311,7 +3172,9 @@
       <c r="D58">
         <v>624</v>
       </c>
-      <c r="E58" s="5"/>
+      <c r="E58" s="5" t="s">
+        <v>330</v>
+      </c>
       <c r="H58" s="13"/>
       <c r="I58" s="16"/>
       <c r="J58" s="5"/>
@@ -2329,7 +3192,9 @@
       <c r="D59">
         <v>625</v>
       </c>
-      <c r="E59" s="5"/>
+      <c r="E59" s="5" t="s">
+        <v>331</v>
+      </c>
       <c r="H59" s="13"/>
       <c r="I59" s="16"/>
       <c r="J59" s="5"/>
@@ -2347,7 +3212,9 @@
       <c r="D60">
         <v>626</v>
       </c>
-      <c r="E60" s="5"/>
+      <c r="E60" s="5" t="s">
+        <v>332</v>
+      </c>
       <c r="H60" s="13"/>
       <c r="I60" s="16"/>
       <c r="J60" s="5"/>
@@ -2365,7 +3232,9 @@
       <c r="D61">
         <v>627</v>
       </c>
-      <c r="E61" s="5"/>
+      <c r="E61" s="5" t="s">
+        <v>333</v>
+      </c>
       <c r="H61" s="13"/>
       <c r="I61" s="16"/>
       <c r="J61" s="5"/>
@@ -2383,7 +3252,9 @@
       <c r="D62">
         <v>628</v>
       </c>
-      <c r="E62" s="5"/>
+      <c r="E62" s="5" t="s">
+        <v>334</v>
+      </c>
       <c r="H62" s="13"/>
       <c r="I62" s="16"/>
       <c r="J62" s="5"/>
@@ -2401,7 +3272,9 @@
       <c r="D63">
         <v>629</v>
       </c>
-      <c r="E63" s="5"/>
+      <c r="E63" s="5" t="s">
+        <v>335</v>
+      </c>
       <c r="H63" s="13"/>
       <c r="I63" s="16"/>
       <c r="J63" s="5"/>
@@ -2419,7 +3292,9 @@
       <c r="D64">
         <v>630</v>
       </c>
-      <c r="E64" s="5"/>
+      <c r="E64" s="5" t="s">
+        <v>336</v>
+      </c>
       <c r="H64" s="13"/>
       <c r="I64" s="16"/>
       <c r="J64" s="5"/>
@@ -2437,7 +3312,9 @@
       <c r="D65">
         <v>631</v>
       </c>
-      <c r="E65" s="5"/>
+      <c r="E65" s="5" t="s">
+        <v>337</v>
+      </c>
       <c r="H65" s="13"/>
       <c r="I65" s="16"/>
       <c r="J65" s="5"/>
@@ -2455,7 +3332,9 @@
       <c r="D66">
         <v>632</v>
       </c>
-      <c r="E66" s="5"/>
+      <c r="E66" s="5" t="s">
+        <v>338</v>
+      </c>
       <c r="H66" s="13"/>
       <c r="I66" s="16"/>
       <c r="J66" s="5"/>
@@ -2473,7 +3352,9 @@
       <c r="D67">
         <v>633</v>
       </c>
-      <c r="E67" s="5"/>
+      <c r="E67" s="5" t="s">
+        <v>339</v>
+      </c>
       <c r="H67" s="13"/>
       <c r="I67" s="16"/>
       <c r="J67" s="5"/>
@@ -2491,7 +3372,9 @@
       <c r="D68">
         <v>634</v>
       </c>
-      <c r="E68" s="5"/>
+      <c r="E68" s="5" t="s">
+        <v>340</v>
+      </c>
       <c r="H68" s="13"/>
       <c r="I68" s="16"/>
       <c r="J68" s="5"/>
@@ -2509,7 +3392,9 @@
       <c r="D69">
         <v>635</v>
       </c>
-      <c r="E69" s="5"/>
+      <c r="E69" s="5" t="s">
+        <v>341</v>
+      </c>
       <c r="F69" s="3"/>
       <c r="G69" s="12"/>
       <c r="H69" s="13"/>
@@ -2529,7 +3414,9 @@
       <c r="D70">
         <v>636</v>
       </c>
-      <c r="E70" s="5"/>
+      <c r="E70" s="5" t="s">
+        <v>342</v>
+      </c>
       <c r="F70" s="3"/>
       <c r="G70" s="12"/>
       <c r="H70" s="13"/>
@@ -2549,7 +3436,9 @@
       <c r="D71">
         <v>637</v>
       </c>
-      <c r="E71" s="5"/>
+      <c r="E71" s="5" t="s">
+        <v>343</v>
+      </c>
       <c r="F71" s="3"/>
       <c r="G71" s="12"/>
       <c r="H71" s="13"/>
@@ -2569,7 +3458,9 @@
       <c r="D72">
         <v>638</v>
       </c>
-      <c r="E72" s="5"/>
+      <c r="E72" s="5" t="s">
+        <v>344</v>
+      </c>
       <c r="F72" s="3"/>
       <c r="G72" s="12"/>
       <c r="H72" s="13"/>
@@ -2589,7 +3480,9 @@
       <c r="D73">
         <v>639</v>
       </c>
-      <c r="E73" s="5"/>
+      <c r="E73" s="5" t="s">
+        <v>345</v>
+      </c>
       <c r="F73" s="3"/>
       <c r="G73" s="12"/>
       <c r="H73" s="13"/>
@@ -2609,7 +3502,9 @@
       <c r="D74">
         <v>640</v>
       </c>
-      <c r="E74" s="5"/>
+      <c r="E74" s="5" t="s">
+        <v>346</v>
+      </c>
       <c r="F74" s="3"/>
       <c r="G74" s="12"/>
       <c r="H74" s="13"/>
@@ -2629,7 +3524,9 @@
       <c r="D75">
         <v>641</v>
       </c>
-      <c r="E75" s="5"/>
+      <c r="E75" s="5" t="s">
+        <v>347</v>
+      </c>
       <c r="F75" s="3"/>
       <c r="G75" s="12"/>
       <c r="H75" s="13"/>
@@ -2649,7 +3546,9 @@
       <c r="D76">
         <v>642</v>
       </c>
-      <c r="E76" s="5"/>
+      <c r="E76" s="5" t="s">
+        <v>348</v>
+      </c>
       <c r="F76" s="3"/>
       <c r="G76" s="12"/>
       <c r="H76" s="13"/>
@@ -2669,7 +3568,9 @@
       <c r="D77">
         <v>643</v>
       </c>
-      <c r="E77" s="5"/>
+      <c r="E77" s="5" t="s">
+        <v>349</v>
+      </c>
       <c r="F77" s="3"/>
       <c r="G77" s="12"/>
       <c r="H77" s="13"/>
@@ -2689,7 +3590,9 @@
       <c r="D78">
         <v>644</v>
       </c>
-      <c r="E78" s="5"/>
+      <c r="E78" s="5" t="s">
+        <v>350</v>
+      </c>
       <c r="F78" s="3"/>
       <c r="G78" s="12"/>
       <c r="H78" s="13"/>
@@ -2709,7 +3612,9 @@
       <c r="D79">
         <v>645</v>
       </c>
-      <c r="E79" s="5"/>
+      <c r="E79" s="5" t="s">
+        <v>351</v>
+      </c>
       <c r="F79" s="3"/>
       <c r="G79" s="12"/>
       <c r="H79" s="13"/>
@@ -2729,7 +3634,9 @@
       <c r="D80">
         <v>646</v>
       </c>
-      <c r="E80" s="5"/>
+      <c r="E80" s="5" t="s">
+        <v>352</v>
+      </c>
       <c r="F80" s="3"/>
       <c r="G80" s="12"/>
       <c r="H80" s="13"/>
@@ -2749,7 +3656,9 @@
       <c r="D81">
         <v>647</v>
       </c>
-      <c r="E81" s="5"/>
+      <c r="E81" s="5" t="s">
+        <v>353</v>
+      </c>
       <c r="F81" s="3"/>
       <c r="G81" s="12"/>
       <c r="H81" s="13"/>
@@ -2769,7 +3678,9 @@
       <c r="D82">
         <v>648</v>
       </c>
-      <c r="E82" s="5"/>
+      <c r="E82" s="5" t="s">
+        <v>354</v>
+      </c>
       <c r="F82" s="3"/>
       <c r="G82" s="12"/>
       <c r="H82" s="13"/>
@@ -2789,7 +3700,9 @@
       <c r="D83">
         <v>649</v>
       </c>
-      <c r="E83" s="5"/>
+      <c r="E83" s="5" t="s">
+        <v>355</v>
+      </c>
       <c r="F83" s="3"/>
       <c r="G83" s="12"/>
       <c r="H83" s="13"/>
@@ -2809,7 +3722,9 @@
       <c r="D84">
         <v>650</v>
       </c>
-      <c r="E84" s="5"/>
+      <c r="E84" s="5" t="s">
+        <v>356</v>
+      </c>
       <c r="F84" s="3"/>
       <c r="G84" s="12"/>
       <c r="H84" s="13"/>
@@ -2829,7 +3744,9 @@
       <c r="D85">
         <v>651</v>
       </c>
-      <c r="E85" s="5"/>
+      <c r="E85" s="5" t="s">
+        <v>357</v>
+      </c>
       <c r="F85" s="3"/>
       <c r="G85" s="12"/>
       <c r="H85" s="13"/>
@@ -2849,7 +3766,9 @@
       <c r="D86">
         <v>652</v>
       </c>
-      <c r="E86" s="5"/>
+      <c r="E86" s="5" t="s">
+        <v>358</v>
+      </c>
       <c r="F86" s="3"/>
       <c r="G86" s="12"/>
       <c r="H86" s="13"/>
@@ -2869,7 +3788,9 @@
       <c r="D87">
         <v>653</v>
       </c>
-      <c r="E87" s="5"/>
+      <c r="E87" s="5" t="s">
+        <v>359</v>
+      </c>
       <c r="F87" s="3"/>
       <c r="G87" s="12"/>
       <c r="H87" s="13"/>
@@ -2889,7 +3810,9 @@
       <c r="D88">
         <v>654</v>
       </c>
-      <c r="E88" s="5"/>
+      <c r="E88" s="5" t="s">
+        <v>360</v>
+      </c>
       <c r="F88" s="3"/>
       <c r="G88" s="12"/>
       <c r="H88" s="13"/>
@@ -2949,7 +3872,9 @@
       <c r="D91">
         <v>655</v>
       </c>
-      <c r="E91" s="5"/>
+      <c r="E91" s="5" t="s">
+        <v>361</v>
+      </c>
       <c r="F91" s="6"/>
       <c r="G91" s="13"/>
       <c r="H91" s="13"/>
@@ -2969,7 +3894,9 @@
       <c r="D92">
         <v>656</v>
       </c>
-      <c r="E92" s="5"/>
+      <c r="E92" s="5" t="s">
+        <v>362</v>
+      </c>
       <c r="F92" s="6"/>
       <c r="G92" s="13"/>
       <c r="H92" s="13"/>
@@ -2989,7 +3916,9 @@
       <c r="D93">
         <v>657</v>
       </c>
-      <c r="E93" s="5"/>
+      <c r="E93" s="5" t="s">
+        <v>363</v>
+      </c>
       <c r="F93" s="3"/>
       <c r="G93" s="12"/>
       <c r="H93" s="13"/>
@@ -3009,7 +3938,9 @@
       <c r="D94">
         <v>658</v>
       </c>
-      <c r="E94" s="5"/>
+      <c r="E94" s="5" t="s">
+        <v>364</v>
+      </c>
       <c r="F94" s="3"/>
       <c r="G94" s="12"/>
       <c r="H94" s="13"/>
@@ -3029,7 +3960,9 @@
       <c r="D95">
         <v>659</v>
       </c>
-      <c r="E95" s="5"/>
+      <c r="E95" s="5" t="s">
+        <v>365</v>
+      </c>
       <c r="F95" s="3"/>
       <c r="G95" s="12"/>
       <c r="H95" s="13"/>
@@ -3049,7 +3982,9 @@
       <c r="D96">
         <v>660</v>
       </c>
-      <c r="E96" s="5"/>
+      <c r="E96" s="5" t="s">
+        <v>366</v>
+      </c>
       <c r="F96" s="3"/>
       <c r="G96" s="12"/>
       <c r="H96" s="13"/>
@@ -3069,7 +4004,9 @@
       <c r="D97">
         <v>661</v>
       </c>
-      <c r="E97" s="5"/>
+      <c r="E97" s="5" t="s">
+        <v>367</v>
+      </c>
       <c r="F97" s="3"/>
       <c r="G97" s="12"/>
       <c r="H97" s="13"/>
@@ -3089,7 +4026,9 @@
       <c r="D98">
         <v>662</v>
       </c>
-      <c r="E98" s="5"/>
+      <c r="E98" s="5" t="s">
+        <v>368</v>
+      </c>
       <c r="F98" s="3"/>
       <c r="G98" s="12"/>
       <c r="H98" s="13"/>
@@ -3109,7 +4048,9 @@
       <c r="D99">
         <v>663</v>
       </c>
-      <c r="E99" s="5"/>
+      <c r="E99" s="5" t="s">
+        <v>369</v>
+      </c>
       <c r="F99" s="3"/>
       <c r="G99" s="12"/>
       <c r="H99" s="13"/>
@@ -3129,7 +4070,9 @@
       <c r="D100">
         <v>664</v>
       </c>
-      <c r="E100" s="5"/>
+      <c r="E100" s="5" t="s">
+        <v>370</v>
+      </c>
       <c r="F100" s="3"/>
       <c r="G100" s="12"/>
       <c r="H100" s="13"/>
@@ -3149,7 +4092,9 @@
       <c r="D101">
         <v>665</v>
       </c>
-      <c r="E101" s="5"/>
+      <c r="E101" s="5" t="s">
+        <v>371</v>
+      </c>
       <c r="F101" s="3"/>
       <c r="G101" s="12"/>
       <c r="H101" s="13"/>
@@ -3169,7 +4114,9 @@
       <c r="D102">
         <v>666</v>
       </c>
-      <c r="E102" s="5"/>
+      <c r="E102" s="5" t="s">
+        <v>372</v>
+      </c>
       <c r="F102" s="3"/>
       <c r="G102" s="12"/>
       <c r="H102" s="13"/>
@@ -3189,7 +4136,9 @@
       <c r="D103">
         <v>667</v>
       </c>
-      <c r="E103" s="5"/>
+      <c r="E103" s="5" t="s">
+        <v>373</v>
+      </c>
       <c r="F103" s="3"/>
       <c r="G103" s="12"/>
       <c r="H103" s="13"/>
@@ -3209,7 +4158,9 @@
       <c r="D104">
         <v>668</v>
       </c>
-      <c r="E104" s="5"/>
+      <c r="E104" s="5" t="s">
+        <v>374</v>
+      </c>
       <c r="F104" s="3"/>
       <c r="G104" s="12"/>
       <c r="H104" s="13"/>
@@ -3229,7 +4180,9 @@
       <c r="D105">
         <v>669</v>
       </c>
-      <c r="E105" s="5"/>
+      <c r="E105" s="5" t="s">
+        <v>375</v>
+      </c>
       <c r="F105" s="3"/>
       <c r="G105" s="12"/>
       <c r="H105" s="13"/>
@@ -3249,7 +4202,9 @@
       <c r="D106">
         <v>670</v>
       </c>
-      <c r="E106" s="5"/>
+      <c r="E106" s="5" t="s">
+        <v>376</v>
+      </c>
       <c r="F106" s="3"/>
       <c r="G106" s="12"/>
       <c r="H106" s="13"/>
@@ -3269,7 +4224,9 @@
       <c r="D107">
         <v>671</v>
       </c>
-      <c r="E107" s="5"/>
+      <c r="E107" s="5" t="s">
+        <v>377</v>
+      </c>
       <c r="F107" s="3"/>
       <c r="G107" s="12"/>
       <c r="H107" s="13"/>
@@ -3289,7 +4246,9 @@
       <c r="D108">
         <v>672</v>
       </c>
-      <c r="E108" s="5"/>
+      <c r="E108" s="5" t="s">
+        <v>378</v>
+      </c>
       <c r="F108" s="3"/>
       <c r="G108" s="12"/>
       <c r="H108" s="13"/>
@@ -3309,7 +4268,9 @@
       <c r="D109">
         <v>673</v>
       </c>
-      <c r="E109" s="5"/>
+      <c r="E109" s="5" t="s">
+        <v>379</v>
+      </c>
       <c r="F109" s="3"/>
       <c r="G109" s="12"/>
       <c r="H109" s="13"/>
@@ -3329,7 +4290,9 @@
       <c r="D110">
         <v>674</v>
       </c>
-      <c r="E110" s="5"/>
+      <c r="E110" s="5" t="s">
+        <v>380</v>
+      </c>
       <c r="F110" s="3"/>
       <c r="G110" s="12"/>
       <c r="H110" s="13"/>
@@ -3349,7 +4312,9 @@
       <c r="D111">
         <v>675</v>
       </c>
-      <c r="E111" s="5"/>
+      <c r="E111" s="5" t="s">
+        <v>381</v>
+      </c>
       <c r="F111" s="3"/>
       <c r="G111" s="12"/>
       <c r="H111" s="13"/>
@@ -3369,7 +4334,9 @@
       <c r="D112">
         <v>676</v>
       </c>
-      <c r="E112" s="5"/>
+      <c r="E112" s="5" t="s">
+        <v>382</v>
+      </c>
       <c r="F112" s="3"/>
       <c r="G112" s="12"/>
       <c r="H112" s="13"/>
@@ -3389,7 +4356,9 @@
       <c r="D113">
         <v>677</v>
       </c>
-      <c r="E113" s="5"/>
+      <c r="E113" s="5" t="s">
+        <v>383</v>
+      </c>
       <c r="F113" s="3"/>
       <c r="G113" s="12"/>
       <c r="H113" s="13"/>
@@ -3409,7 +4378,9 @@
       <c r="D114">
         <v>678</v>
       </c>
-      <c r="E114" s="5"/>
+      <c r="E114" s="5" t="s">
+        <v>384</v>
+      </c>
       <c r="F114" s="3"/>
       <c r="G114" s="12"/>
       <c r="H114" s="13"/>
@@ -3429,7 +4400,9 @@
       <c r="D115">
         <v>679</v>
       </c>
-      <c r="E115" s="5"/>
+      <c r="E115" s="5" t="s">
+        <v>385</v>
+      </c>
       <c r="F115" s="3"/>
       <c r="G115" s="12"/>
       <c r="H115" s="13"/>
@@ -3449,7 +4422,9 @@
       <c r="D116">
         <v>680</v>
       </c>
-      <c r="E116" s="5"/>
+      <c r="E116" s="5" t="s">
+        <v>386</v>
+      </c>
       <c r="F116" s="3"/>
       <c r="G116" s="12"/>
       <c r="H116" s="13"/>
@@ -3469,7 +4444,9 @@
       <c r="D117">
         <v>681</v>
       </c>
-      <c r="E117" s="5"/>
+      <c r="E117" s="5" t="s">
+        <v>387</v>
+      </c>
       <c r="F117" s="3"/>
       <c r="G117" s="12"/>
       <c r="H117" s="13"/>
@@ -3489,7 +4466,9 @@
       <c r="D118">
         <v>682</v>
       </c>
-      <c r="E118" s="5"/>
+      <c r="E118" s="5" t="s">
+        <v>388</v>
+      </c>
       <c r="F118" s="3"/>
       <c r="G118" s="12"/>
       <c r="H118" s="13"/>
@@ -3509,7 +4488,9 @@
       <c r="D119">
         <v>683</v>
       </c>
-      <c r="E119" s="5"/>
+      <c r="E119" s="5" t="s">
+        <v>389</v>
+      </c>
       <c r="F119" s="3"/>
       <c r="G119" s="12"/>
       <c r="H119" s="13"/>
@@ -3529,7 +4510,9 @@
       <c r="D120">
         <v>684</v>
       </c>
-      <c r="E120" s="5"/>
+      <c r="E120" s="5" t="s">
+        <v>390</v>
+      </c>
       <c r="F120" s="3"/>
       <c r="G120" s="12"/>
       <c r="H120" s="13"/>
@@ -3549,7 +4532,9 @@
       <c r="D121">
         <v>685</v>
       </c>
-      <c r="E121" s="5"/>
+      <c r="E121" s="5" t="s">
+        <v>391</v>
+      </c>
       <c r="F121" s="3"/>
       <c r="G121" s="12"/>
       <c r="H121" s="13"/>
@@ -3569,7 +4554,9 @@
       <c r="D122">
         <v>686</v>
       </c>
-      <c r="E122" s="5"/>
+      <c r="E122" s="5" t="s">
+        <v>392</v>
+      </c>
       <c r="F122" s="3"/>
       <c r="G122" s="12"/>
       <c r="H122" s="13"/>
@@ -3589,7 +4576,9 @@
       <c r="D123">
         <v>687</v>
       </c>
-      <c r="E123" s="5"/>
+      <c r="E123" s="5" t="s">
+        <v>393</v>
+      </c>
       <c r="F123" s="3"/>
       <c r="G123" s="12"/>
       <c r="H123" s="13"/>
@@ -3609,7 +4598,9 @@
       <c r="D124">
         <v>688</v>
       </c>
-      <c r="E124" s="5"/>
+      <c r="E124" s="5" t="s">
+        <v>394</v>
+      </c>
       <c r="F124" s="3"/>
       <c r="G124" s="12"/>
       <c r="H124" s="13"/>
@@ -3629,7 +4620,9 @@
       <c r="D125">
         <v>689</v>
       </c>
-      <c r="E125" s="5"/>
+      <c r="E125" s="5" t="s">
+        <v>395</v>
+      </c>
       <c r="F125" s="3"/>
       <c r="G125" s="12"/>
       <c r="H125" s="13"/>
@@ -3649,7 +4642,9 @@
       <c r="D126">
         <v>690</v>
       </c>
-      <c r="E126" s="5"/>
+      <c r="E126" s="5" t="s">
+        <v>396</v>
+      </c>
       <c r="F126" s="3"/>
       <c r="G126" s="12"/>
       <c r="H126" s="13"/>
@@ -3749,7 +4744,9 @@
       <c r="D131">
         <v>691</v>
       </c>
-      <c r="E131" s="5"/>
+      <c r="E131" s="5" t="s">
+        <v>397</v>
+      </c>
       <c r="F131" s="3"/>
       <c r="G131" s="12"/>
       <c r="H131" s="13"/>
@@ -3769,7 +4766,9 @@
       <c r="D132">
         <v>692</v>
       </c>
-      <c r="E132" s="5"/>
+      <c r="E132" s="5" t="s">
+        <v>398</v>
+      </c>
       <c r="F132" s="3"/>
       <c r="G132" s="12"/>
       <c r="H132" s="13"/>
@@ -3789,7 +4788,9 @@
       <c r="D133">
         <v>693</v>
       </c>
-      <c r="E133" s="5"/>
+      <c r="E133" s="5" t="s">
+        <v>399</v>
+      </c>
       <c r="F133" s="3"/>
       <c r="G133" s="12"/>
       <c r="H133" s="13"/>
@@ -3809,7 +4810,9 @@
       <c r="D134">
         <v>694</v>
       </c>
-      <c r="E134" s="5"/>
+      <c r="E134" s="5" t="s">
+        <v>400</v>
+      </c>
       <c r="F134" s="3"/>
       <c r="G134" s="12"/>
       <c r="H134" s="13"/>
@@ -3829,7 +4832,9 @@
       <c r="D135">
         <v>695</v>
       </c>
-      <c r="E135" s="5"/>
+      <c r="E135" s="5" t="s">
+        <v>401</v>
+      </c>
       <c r="F135" s="3"/>
       <c r="G135" s="12"/>
       <c r="H135" s="13"/>
@@ -3849,7 +4854,9 @@
       <c r="D136">
         <v>696</v>
       </c>
-      <c r="E136" s="5"/>
+      <c r="E136" s="5" t="s">
+        <v>402</v>
+      </c>
       <c r="F136" s="3"/>
       <c r="G136" s="12"/>
       <c r="H136" s="13"/>
@@ -3869,7 +4876,9 @@
       <c r="D137">
         <v>697</v>
       </c>
-      <c r="E137" s="5"/>
+      <c r="E137" s="5" t="s">
+        <v>403</v>
+      </c>
       <c r="F137" s="3"/>
       <c r="G137" s="12"/>
       <c r="H137" s="13"/>
@@ -3889,7 +4898,9 @@
       <c r="D138">
         <v>698</v>
       </c>
-      <c r="E138" s="5"/>
+      <c r="E138" s="5" t="s">
+        <v>404</v>
+      </c>
       <c r="F138" s="3"/>
       <c r="G138" s="12"/>
       <c r="H138" s="13"/>
@@ -3909,7 +4920,9 @@
       <c r="D139">
         <v>699</v>
       </c>
-      <c r="E139" s="5"/>
+      <c r="E139" s="5" t="s">
+        <v>405</v>
+      </c>
       <c r="F139" s="3"/>
       <c r="G139" s="12"/>
       <c r="H139" s="13"/>
@@ -3929,7 +4942,9 @@
       <c r="D140">
         <v>700</v>
       </c>
-      <c r="E140" s="5"/>
+      <c r="E140" s="5" t="s">
+        <v>406</v>
+      </c>
       <c r="F140" s="3"/>
       <c r="G140" s="12"/>
       <c r="H140" s="13"/>
@@ -3949,7 +4964,9 @@
       <c r="D141">
         <v>701</v>
       </c>
-      <c r="E141" s="5"/>
+      <c r="E141" s="5" t="s">
+        <v>407</v>
+      </c>
       <c r="F141" s="6"/>
       <c r="G141" s="13"/>
       <c r="H141" s="13"/>
@@ -3969,7 +4986,9 @@
       <c r="D142">
         <v>702</v>
       </c>
-      <c r="E142" s="5"/>
+      <c r="E142" s="5" t="s">
+        <v>408</v>
+      </c>
       <c r="F142" s="6"/>
       <c r="G142" s="13"/>
       <c r="H142" s="13"/>
@@ -3989,7 +5008,9 @@
       <c r="D143">
         <v>703</v>
       </c>
-      <c r="E143" s="5"/>
+      <c r="E143" s="5" t="s">
+        <v>409</v>
+      </c>
       <c r="F143" s="6"/>
       <c r="G143" s="13"/>
       <c r="H143" s="13"/>
@@ -4009,7 +5030,9 @@
       <c r="D144">
         <v>704</v>
       </c>
-      <c r="E144" s="5"/>
+      <c r="E144" s="5" t="s">
+        <v>410</v>
+      </c>
       <c r="F144" s="6"/>
       <c r="G144" s="13"/>
       <c r="H144" s="13"/>
@@ -4029,7 +5052,9 @@
       <c r="D145">
         <v>705</v>
       </c>
-      <c r="E145" s="5"/>
+      <c r="E145" s="5" t="s">
+        <v>411</v>
+      </c>
       <c r="F145" s="3"/>
       <c r="G145" s="12"/>
       <c r="H145" s="13"/>
@@ -4049,7 +5074,9 @@
       <c r="D146">
         <v>706</v>
       </c>
-      <c r="E146" s="5"/>
+      <c r="E146" s="5" t="s">
+        <v>412</v>
+      </c>
       <c r="F146" s="3"/>
       <c r="G146" s="12"/>
       <c r="H146" s="13"/>
@@ -4109,7 +5136,9 @@
       <c r="D149">
         <v>707</v>
       </c>
-      <c r="E149" s="5"/>
+      <c r="E149" s="5" t="s">
+        <v>413</v>
+      </c>
       <c r="F149" s="3"/>
       <c r="G149" s="12"/>
       <c r="H149" s="13"/>
@@ -4129,7 +5158,9 @@
       <c r="D150">
         <v>708</v>
       </c>
-      <c r="E150" s="5"/>
+      <c r="E150" s="5" t="s">
+        <v>414</v>
+      </c>
       <c r="F150" s="3"/>
       <c r="G150" s="12"/>
       <c r="H150" s="13"/>
@@ -4149,7 +5180,9 @@
       <c r="D151">
         <v>709</v>
       </c>
-      <c r="E151" s="5"/>
+      <c r="E151" s="5" t="s">
+        <v>415</v>
+      </c>
       <c r="F151" s="3"/>
       <c r="G151" s="12"/>
       <c r="H151" s="13"/>
@@ -4169,7 +5202,9 @@
       <c r="D152">
         <v>710</v>
       </c>
-      <c r="E152" s="5"/>
+      <c r="E152" s="5" t="s">
+        <v>416</v>
+      </c>
       <c r="F152" s="3"/>
       <c r="G152" s="12"/>
       <c r="H152" s="13"/>
@@ -4189,7 +5224,9 @@
       <c r="D153">
         <v>711</v>
       </c>
-      <c r="E153" s="5"/>
+      <c r="E153" s="5" t="s">
+        <v>417</v>
+      </c>
       <c r="F153" s="3"/>
       <c r="G153" s="12"/>
       <c r="H153" s="13"/>
@@ -4209,7 +5246,9 @@
       <c r="D154">
         <v>712</v>
       </c>
-      <c r="E154" s="5"/>
+      <c r="E154" s="5" t="s">
+        <v>418</v>
+      </c>
       <c r="F154" s="3"/>
       <c r="G154" s="12"/>
       <c r="H154" s="13"/>
@@ -4229,7 +5268,9 @@
       <c r="D155">
         <v>713</v>
       </c>
-      <c r="E155" s="5"/>
+      <c r="E155" s="5" t="s">
+        <v>419</v>
+      </c>
       <c r="F155" s="3"/>
       <c r="G155" s="12"/>
       <c r="H155" s="13"/>
@@ -4249,7 +5290,9 @@
       <c r="D156">
         <v>714</v>
       </c>
-      <c r="E156" s="5"/>
+      <c r="E156" s="5" t="s">
+        <v>420</v>
+      </c>
       <c r="F156" s="3"/>
       <c r="G156" s="12"/>
       <c r="H156" s="13"/>
@@ -4269,7 +5312,9 @@
       <c r="D157">
         <v>715</v>
       </c>
-      <c r="E157" s="5"/>
+      <c r="E157" s="5" t="s">
+        <v>421</v>
+      </c>
       <c r="F157" s="3"/>
       <c r="G157" s="12"/>
       <c r="H157" s="13"/>
@@ -4289,7 +5334,9 @@
       <c r="D158">
         <v>716</v>
       </c>
-      <c r="E158" s="5"/>
+      <c r="E158" s="5" t="s">
+        <v>422</v>
+      </c>
       <c r="F158" s="3"/>
       <c r="G158" s="12"/>
       <c r="H158" s="13"/>
@@ -4309,7 +5356,9 @@
       <c r="D159">
         <v>717</v>
       </c>
-      <c r="E159" s="5"/>
+      <c r="E159" s="5" t="s">
+        <v>423</v>
+      </c>
       <c r="F159" s="3"/>
       <c r="G159" s="12"/>
       <c r="H159" s="13"/>
@@ -4329,7 +5378,9 @@
       <c r="D160">
         <v>718</v>
       </c>
-      <c r="E160" s="5"/>
+      <c r="E160" s="5" t="s">
+        <v>424</v>
+      </c>
       <c r="F160" s="3"/>
       <c r="G160" s="12"/>
       <c r="H160" s="13"/>
@@ -4349,7 +5400,9 @@
       <c r="D161">
         <v>719</v>
       </c>
-      <c r="E161" s="5"/>
+      <c r="E161" s="5" t="s">
+        <v>425</v>
+      </c>
       <c r="F161" s="3"/>
       <c r="G161" s="12"/>
       <c r="H161" s="13"/>
@@ -4369,7 +5422,9 @@
       <c r="D162">
         <v>720</v>
       </c>
-      <c r="E162" s="5"/>
+      <c r="E162" s="5" t="s">
+        <v>426</v>
+      </c>
       <c r="F162" s="3"/>
       <c r="G162" s="12"/>
       <c r="H162" s="13"/>
@@ -4389,7 +5444,9 @@
       <c r="D163">
         <v>721</v>
       </c>
-      <c r="E163" s="5"/>
+      <c r="E163" s="5" t="s">
+        <v>427</v>
+      </c>
       <c r="F163" s="3"/>
       <c r="G163" s="12"/>
       <c r="H163" s="13"/>
@@ -4409,7 +5466,9 @@
       <c r="D164">
         <v>722</v>
       </c>
-      <c r="E164" s="5"/>
+      <c r="E164" s="5" t="s">
+        <v>428</v>
+      </c>
       <c r="F164" s="3"/>
       <c r="G164" s="12"/>
       <c r="H164" s="13"/>
@@ -4429,7 +5488,9 @@
       <c r="D165">
         <v>723</v>
       </c>
-      <c r="E165" s="5"/>
+      <c r="E165" s="5" t="s">
+        <v>429</v>
+      </c>
       <c r="F165" s="3"/>
       <c r="G165" s="12"/>
       <c r="H165" s="13"/>
@@ -4449,7 +5510,9 @@
       <c r="D166">
         <v>724</v>
       </c>
-      <c r="E166" s="5"/>
+      <c r="E166" s="5" t="s">
+        <v>430</v>
+      </c>
       <c r="F166" s="3"/>
       <c r="G166" s="12"/>
       <c r="H166" s="13"/>
@@ -4469,7 +5532,9 @@
       <c r="D167">
         <v>725</v>
       </c>
-      <c r="E167" s="5"/>
+      <c r="E167" s="5" t="s">
+        <v>431</v>
+      </c>
       <c r="F167" s="3"/>
       <c r="G167" s="12"/>
       <c r="H167" s="13"/>
@@ -4489,7 +5554,9 @@
       <c r="D168">
         <v>726</v>
       </c>
-      <c r="E168" s="5"/>
+      <c r="E168" s="5" t="s">
+        <v>432</v>
+      </c>
       <c r="F168" s="3"/>
       <c r="G168" s="12"/>
       <c r="H168" s="13"/>
@@ -4509,7 +5576,9 @@
       <c r="D169">
         <v>727</v>
       </c>
-      <c r="E169" s="5"/>
+      <c r="E169" s="5" t="s">
+        <v>433</v>
+      </c>
       <c r="F169" s="3"/>
       <c r="G169" s="12"/>
       <c r="H169" s="13"/>
@@ -4529,7 +5598,9 @@
       <c r="D170">
         <v>728</v>
       </c>
-      <c r="E170" s="5"/>
+      <c r="E170" s="5" t="s">
+        <v>434</v>
+      </c>
       <c r="F170" s="3"/>
       <c r="G170" s="12"/>
       <c r="H170" s="13"/>
@@ -4549,7 +5620,9 @@
       <c r="D171">
         <v>729</v>
       </c>
-      <c r="E171" s="5"/>
+      <c r="E171" s="5" t="s">
+        <v>435</v>
+      </c>
       <c r="F171" s="3"/>
       <c r="G171" s="12"/>
       <c r="H171" s="13"/>
@@ -4569,7 +5642,9 @@
       <c r="D172">
         <v>730</v>
       </c>
-      <c r="E172" s="5"/>
+      <c r="E172" s="5" t="s">
+        <v>436</v>
+      </c>
       <c r="F172" s="3"/>
       <c r="G172" s="12"/>
       <c r="H172" s="13"/>
@@ -4629,7 +5704,9 @@
       <c r="D175">
         <v>731</v>
       </c>
-      <c r="E175" s="5"/>
+      <c r="E175" s="5" t="s">
+        <v>437</v>
+      </c>
       <c r="F175" s="3"/>
       <c r="G175" s="12"/>
       <c r="H175" s="13"/>
@@ -4649,7 +5726,9 @@
       <c r="D176">
         <v>732</v>
       </c>
-      <c r="E176" s="5"/>
+      <c r="E176" s="5" t="s">
+        <v>438</v>
+      </c>
       <c r="F176" s="3"/>
       <c r="G176" s="12"/>
       <c r="H176" s="13"/>
@@ -4669,7 +5748,9 @@
       <c r="D177">
         <v>733</v>
       </c>
-      <c r="E177" s="5"/>
+      <c r="E177" s="5" t="s">
+        <v>439</v>
+      </c>
       <c r="F177" s="3"/>
       <c r="G177" s="12"/>
       <c r="H177" s="13"/>
@@ -4689,7 +5770,9 @@
       <c r="D178">
         <v>734</v>
       </c>
-      <c r="E178" s="5"/>
+      <c r="E178" s="5" t="s">
+        <v>440</v>
+      </c>
       <c r="F178" s="3"/>
       <c r="G178" s="12"/>
       <c r="H178" s="13"/>
@@ -4749,7 +5832,9 @@
       <c r="D181">
         <v>735</v>
       </c>
-      <c r="E181" s="5"/>
+      <c r="E181" s="5" t="s">
+        <v>441</v>
+      </c>
       <c r="F181" s="3"/>
       <c r="G181" s="12"/>
       <c r="H181" s="13"/>
@@ -4769,7 +5854,9 @@
       <c r="D182">
         <v>736</v>
       </c>
-      <c r="E182" s="5"/>
+      <c r="E182" s="5" t="s">
+        <v>442</v>
+      </c>
       <c r="F182" s="3"/>
       <c r="G182" s="12"/>
       <c r="H182" s="13"/>
@@ -4789,7 +5876,9 @@
       <c r="D183">
         <v>737</v>
       </c>
-      <c r="E183" s="5"/>
+      <c r="E183" s="5" t="s">
+        <v>443</v>
+      </c>
       <c r="F183" s="3"/>
       <c r="G183" s="12"/>
       <c r="H183" s="13"/>
@@ -4809,7 +5898,9 @@
       <c r="D184">
         <v>738</v>
       </c>
-      <c r="E184" s="5"/>
+      <c r="E184" s="5" t="s">
+        <v>444</v>
+      </c>
       <c r="F184" s="3"/>
       <c r="G184" s="12"/>
       <c r="H184" s="13"/>
@@ -4829,7 +5920,9 @@
       <c r="D185">
         <v>739</v>
       </c>
-      <c r="E185" s="5"/>
+      <c r="E185" s="5" t="s">
+        <v>445</v>
+      </c>
       <c r="F185" s="3"/>
       <c r="G185" s="12"/>
       <c r="H185" s="13"/>
@@ -4849,7 +5942,9 @@
       <c r="D186">
         <v>740</v>
       </c>
-      <c r="E186" s="5"/>
+      <c r="E186" s="5" t="s">
+        <v>446</v>
+      </c>
       <c r="F186" s="3"/>
       <c r="G186" s="12"/>
       <c r="H186" s="13"/>
@@ -4869,7 +5964,9 @@
       <c r="D187">
         <v>741</v>
       </c>
-      <c r="E187" s="5"/>
+      <c r="E187" s="5" t="s">
+        <v>447</v>
+      </c>
       <c r="F187" s="3"/>
       <c r="G187" s="12"/>
       <c r="H187" s="13"/>
@@ -4889,7 +5986,9 @@
       <c r="D188">
         <v>742</v>
       </c>
-      <c r="E188" s="5"/>
+      <c r="E188" s="5" t="s">
+        <v>448</v>
+      </c>
       <c r="F188" s="3"/>
       <c r="G188" s="12"/>
       <c r="H188" s="13"/>
@@ -4909,7 +6008,9 @@
       <c r="D189">
         <v>743</v>
       </c>
-      <c r="E189" s="5"/>
+      <c r="E189" s="5" t="s">
+        <v>449</v>
+      </c>
       <c r="F189" s="3"/>
       <c r="G189" s="12"/>
       <c r="H189" s="13"/>
@@ -4929,7 +6030,9 @@
       <c r="D190">
         <v>744</v>
       </c>
-      <c r="E190" s="5"/>
+      <c r="E190" s="5" t="s">
+        <v>450</v>
+      </c>
       <c r="F190" s="3"/>
       <c r="G190" s="12"/>
       <c r="H190" s="13"/>
@@ -4949,7 +6052,9 @@
       <c r="D191">
         <v>745</v>
       </c>
-      <c r="E191" s="5"/>
+      <c r="E191" s="5" t="s">
+        <v>451</v>
+      </c>
       <c r="F191" s="3"/>
       <c r="G191" s="12"/>
       <c r="H191" s="13"/>
@@ -4969,7 +6074,9 @@
       <c r="D192">
         <v>746</v>
       </c>
-      <c r="E192" s="5"/>
+      <c r="E192" s="5" t="s">
+        <v>452</v>
+      </c>
       <c r="F192" s="3"/>
       <c r="G192" s="12"/>
       <c r="H192" s="13"/>
@@ -4989,7 +6096,9 @@
       <c r="D193">
         <v>747</v>
       </c>
-      <c r="E193" s="5"/>
+      <c r="E193" s="5" t="s">
+        <v>453</v>
+      </c>
       <c r="F193" s="3"/>
       <c r="G193" s="12"/>
       <c r="H193" s="13"/>
@@ -5009,7 +6118,9 @@
       <c r="D194">
         <v>748</v>
       </c>
-      <c r="E194" s="5"/>
+      <c r="E194" s="5" t="s">
+        <v>454</v>
+      </c>
       <c r="F194" s="3"/>
       <c r="G194" s="12"/>
       <c r="H194" s="13"/>
@@ -5029,7 +6140,9 @@
       <c r="D195">
         <v>749</v>
       </c>
-      <c r="E195" s="5"/>
+      <c r="E195" s="5" t="s">
+        <v>455</v>
+      </c>
       <c r="F195" s="3"/>
       <c r="G195" s="12"/>
       <c r="H195" s="13"/>
@@ -5049,7 +6162,9 @@
       <c r="D196">
         <v>750</v>
       </c>
-      <c r="E196" s="5"/>
+      <c r="E196" s="5" t="s">
+        <v>456</v>
+      </c>
       <c r="F196" s="3"/>
       <c r="G196" s="12"/>
       <c r="H196" s="13"/>
@@ -5069,7 +6184,9 @@
       <c r="D197">
         <v>751</v>
       </c>
-      <c r="E197" s="5"/>
+      <c r="E197" s="5" t="s">
+        <v>457</v>
+      </c>
       <c r="F197" s="3"/>
       <c r="G197" s="12"/>
       <c r="H197" s="13"/>
@@ -5089,7 +6206,9 @@
       <c r="D198">
         <v>752</v>
       </c>
-      <c r="E198" s="5"/>
+      <c r="E198" s="5" t="s">
+        <v>458</v>
+      </c>
       <c r="F198" s="3"/>
       <c r="G198" s="12"/>
       <c r="H198" s="13"/>
@@ -5109,7 +6228,9 @@
       <c r="D199">
         <v>753</v>
       </c>
-      <c r="E199" s="5"/>
+      <c r="E199" s="5" t="s">
+        <v>459</v>
+      </c>
       <c r="F199" s="3"/>
       <c r="G199" s="12"/>
       <c r="H199" s="13"/>
@@ -5129,7 +6250,9 @@
       <c r="D200">
         <v>754</v>
       </c>
-      <c r="E200" s="5"/>
+      <c r="E200" s="5" t="s">
+        <v>460</v>
+      </c>
       <c r="F200" s="3"/>
       <c r="G200" s="12"/>
       <c r="H200" s="13"/>
@@ -5149,7 +6272,9 @@
       <c r="D201">
         <v>755</v>
       </c>
-      <c r="E201" s="5"/>
+      <c r="E201" s="5" t="s">
+        <v>461</v>
+      </c>
       <c r="F201" s="3"/>
       <c r="G201" s="12"/>
       <c r="H201" s="13"/>
@@ -5169,7 +6294,9 @@
       <c r="D202">
         <v>756</v>
       </c>
-      <c r="E202" s="5"/>
+      <c r="E202" s="5" t="s">
+        <v>462</v>
+      </c>
       <c r="F202" s="3"/>
       <c r="G202" s="12"/>
       <c r="H202" s="13"/>
@@ -5189,7 +6316,9 @@
       <c r="D203">
         <v>757</v>
       </c>
-      <c r="E203" s="5"/>
+      <c r="E203" s="5" t="s">
+        <v>463</v>
+      </c>
       <c r="F203" s="3"/>
       <c r="G203" s="12"/>
       <c r="H203" s="13"/>
@@ -5209,7 +6338,9 @@
       <c r="D204">
         <v>758</v>
       </c>
-      <c r="E204" s="5"/>
+      <c r="E204" s="5" t="s">
+        <v>464</v>
+      </c>
       <c r="F204" s="3"/>
       <c r="G204" s="12"/>
       <c r="H204" s="13"/>
@@ -5229,7 +6360,9 @@
       <c r="D205">
         <v>759</v>
       </c>
-      <c r="E205" s="5"/>
+      <c r="E205" s="5" t="s">
+        <v>465</v>
+      </c>
       <c r="F205" s="3"/>
       <c r="G205" s="12"/>
       <c r="H205" s="13"/>
@@ -5248,7 +6381,9 @@
       <c r="D206">
         <v>760</v>
       </c>
-      <c r="E206" s="5"/>
+      <c r="E206" s="5" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B207" s="3" t="s">
@@ -5260,7 +6395,9 @@
       <c r="D207">
         <v>761</v>
       </c>
-      <c r="E207" s="5"/>
+      <c r="E207" s="5" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B208" s="3" t="s">
@@ -5272,7 +6409,9 @@
       <c r="D208">
         <v>762</v>
       </c>
-      <c r="E208" s="5"/>
+      <c r="E208" s="5" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="209" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B209" s="3" t="s">
@@ -5284,6 +6423,9 @@
       <c r="D209">
         <v>763</v>
       </c>
+      <c r="E209" s="5" t="s">
+        <v>469</v>
+      </c>
     </row>
     <row r="210" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B210" s="3" t="s">
@@ -5295,6 +6437,9 @@
       <c r="D210">
         <v>764</v>
       </c>
+      <c r="E210" s="5" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="211" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B211" s="3" t="s">
@@ -5306,7 +6451,9 @@
       <c r="D211">
         <v>765</v>
       </c>
-      <c r="E211" s="5"/>
+      <c r="E211" s="5" t="s">
+        <v>471</v>
+      </c>
     </row>
     <row r="212" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B212" s="3" t="s">
@@ -5318,7 +6465,9 @@
       <c r="D212">
         <v>766</v>
       </c>
-      <c r="E212" s="5"/>
+      <c r="E212" s="5" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="213" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B213" s="3" t="s">
@@ -5330,7 +6479,9 @@
       <c r="D213">
         <v>767</v>
       </c>
-      <c r="E213" s="5"/>
+      <c r="E213" s="5" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="214" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B214" s="3" t="s">
@@ -5342,7 +6493,9 @@
       <c r="D214">
         <v>768</v>
       </c>
-      <c r="E214" s="5"/>
+      <c r="E214" s="5" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="215" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B215" s="3" t="s">
@@ -5354,7 +6507,9 @@
       <c r="D215">
         <v>769</v>
       </c>
-      <c r="E215" s="5"/>
+      <c r="E215" s="5" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="216" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B216" s="3" t="s">
@@ -5366,7 +6521,9 @@
       <c r="D216">
         <v>770</v>
       </c>
-      <c r="E216" s="5"/>
+      <c r="E216" s="5" t="s">
+        <v>476</v>
+      </c>
     </row>
     <row r="217" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B217" s="3" t="s">
@@ -5378,6 +6535,9 @@
       <c r="D217">
         <v>771</v>
       </c>
+      <c r="E217" s="5" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="218" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B218" s="3" t="s">
@@ -5389,6 +6549,9 @@
       <c r="D218">
         <v>772</v>
       </c>
+      <c r="E218" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="219" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B219" s="3" t="s">
@@ -5400,7 +6563,9 @@
       <c r="D219">
         <v>773</v>
       </c>
-      <c r="E219" s="5"/>
+      <c r="E219" s="5" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="220" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B220" s="3" t="s">
@@ -5412,7 +6577,9 @@
       <c r="D220">
         <v>774</v>
       </c>
-      <c r="E220" s="5"/>
+      <c r="E220" s="5" t="s">
+        <v>480</v>
+      </c>
     </row>
     <row r="221" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B221" s="3" t="s">
@@ -5424,6 +6591,9 @@
       <c r="D221">
         <v>775</v>
       </c>
+      <c r="E221" s="5" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="222" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B222" s="3" t="s">
@@ -5435,6 +6605,9 @@
       <c r="D222">
         <v>776</v>
       </c>
+      <c r="E222" s="5" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="223" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B223" s="3" t="s">
@@ -5446,6 +6619,9 @@
       <c r="D223">
         <v>777</v>
       </c>
+      <c r="E223" s="5" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="224" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B224" s="3" t="s">
@@ -5457,8 +6633,11 @@
       <c r="D224">
         <v>778</v>
       </c>
-    </row>
-    <row r="225" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E224" s="5" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="225" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B225" s="3" t="s">
         <v>237</v>
       </c>
@@ -5468,8 +6647,11 @@
       <c r="D225">
         <v>779</v>
       </c>
-    </row>
-    <row r="226" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E225" s="5" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="226" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B226" s="3" t="s">
         <v>238</v>
       </c>
@@ -5479,8 +6661,11 @@
       <c r="D226">
         <v>780</v>
       </c>
-    </row>
-    <row r="227" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E226" s="5" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="227" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B227" s="3" t="s">
         <v>239</v>
       </c>
@@ -5490,8 +6675,11 @@
       <c r="D227">
         <v>781</v>
       </c>
-    </row>
-    <row r="228" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E227" s="5" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="228" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B228" s="3" t="s">
         <v>240</v>
       </c>
@@ -5501,8 +6689,11 @@
       <c r="D228">
         <v>782</v>
       </c>
-    </row>
-    <row r="229" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E228" s="5" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="229" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B229" s="3" t="s">
         <v>241</v>
       </c>
@@ -5512,8 +6703,11 @@
       <c r="D229">
         <v>783</v>
       </c>
-    </row>
-    <row r="230" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E229" s="5" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="230" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B230" s="3" t="s">
         <v>242</v>
       </c>
@@ -5523,8 +6717,11 @@
       <c r="D230">
         <v>784</v>
       </c>
-    </row>
-    <row r="231" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E230" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="231" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B231" s="3" t="s">
         <v>243</v>
       </c>
@@ -5534,8 +6731,11 @@
       <c r="D231">
         <v>785</v>
       </c>
-    </row>
-    <row r="232" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E231" s="5" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="232" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B232" s="3" t="s">
         <v>244</v>
       </c>
@@ -5545,8 +6745,11 @@
       <c r="D232">
         <v>786</v>
       </c>
-    </row>
-    <row r="233" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E232" s="5" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="233" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B233" s="3" t="s">
         <v>245</v>
       </c>
@@ -5556,8 +6759,11 @@
       <c r="D233">
         <v>787</v>
       </c>
-    </row>
-    <row r="234" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E233" s="5" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="234" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B234" s="3" t="s">
         <v>246</v>
       </c>
@@ -5567,8 +6773,11 @@
       <c r="D234">
         <v>788</v>
       </c>
-    </row>
-    <row r="235" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E234" s="5" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="235" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B235" s="3" t="s">
         <v>247</v>
       </c>
@@ -5578,8 +6787,11 @@
       <c r="D235">
         <v>789</v>
       </c>
-    </row>
-    <row r="236" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E235" s="5" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="236" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B236" s="3" t="s">
         <v>248</v>
       </c>
@@ -5589,8 +6801,11 @@
       <c r="D236">
         <v>790</v>
       </c>
-    </row>
-    <row r="237" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E236" s="5" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="237" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B237" s="3" t="s">
         <v>249</v>
       </c>
@@ -5600,8 +6815,11 @@
       <c r="D237">
         <v>791</v>
       </c>
-    </row>
-    <row r="238" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E237" s="5" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="238" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B238" s="3" t="s">
         <v>250</v>
       </c>
@@ -5611,8 +6829,11 @@
       <c r="D238">
         <v>792</v>
       </c>
-    </row>
-    <row r="239" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E238" s="5" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="239" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B239" s="3" t="s">
         <v>251</v>
       </c>
@@ -5622,8 +6843,11 @@
       <c r="D239">
         <v>793</v>
       </c>
-    </row>
-    <row r="240" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E239" s="5" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="240" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B240" s="3" t="s">
         <v>252</v>
       </c>
@@ -5633,8 +6857,11 @@
       <c r="D240">
         <v>794</v>
       </c>
-    </row>
-    <row r="241" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E240" s="5" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="241" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B241" s="3" t="s">
         <v>253</v>
       </c>
@@ -5644,8 +6871,11 @@
       <c r="D241">
         <v>795</v>
       </c>
-    </row>
-    <row r="242" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E241" s="5" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="242" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B242" s="3" t="s">
         <v>254</v>
       </c>
@@ -5655,8 +6885,11 @@
       <c r="D242">
         <v>796</v>
       </c>
-    </row>
-    <row r="243" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E242" s="5" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="243" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B243" s="3" t="s">
         <v>255</v>
       </c>
@@ -5666,8 +6899,11 @@
       <c r="D243">
         <v>797</v>
       </c>
-    </row>
-    <row r="244" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E243" s="5" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="244" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B244" s="3" t="s">
         <v>256</v>
       </c>
@@ -5677,8 +6913,11 @@
       <c r="D244">
         <v>798</v>
       </c>
-    </row>
-    <row r="245" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E244" s="5" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="245" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B245" s="3" t="s">
         <v>257</v>
       </c>
@@ -5688,8 +6927,11 @@
       <c r="D245">
         <v>799</v>
       </c>
-    </row>
-    <row r="246" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E245" s="5" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="246" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B246" s="3" t="s">
         <v>258</v>
       </c>
@@ -5699,8 +6941,11 @@
       <c r="D246">
         <v>800</v>
       </c>
-    </row>
-    <row r="247" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E246" s="5" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="247" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B247" s="3" t="s">
         <v>259</v>
       </c>
@@ -5710,8 +6955,11 @@
       <c r="D247">
         <v>801</v>
       </c>
-    </row>
-    <row r="248" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E247" s="5" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="248" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B248" s="3" t="s">
         <v>260</v>
       </c>
@@ -5721,8 +6969,11 @@
       <c r="D248">
         <v>802</v>
       </c>
-    </row>
-    <row r="249" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E248" s="5" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="249" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B249" s="3" t="s">
         <v>261</v>
       </c>
@@ -5732,8 +6983,11 @@
       <c r="D249">
         <v>803</v>
       </c>
-    </row>
-    <row r="250" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E249" s="5" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="250" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B250" s="3" t="s">
         <v>262</v>
       </c>
@@ -5743,8 +6997,11 @@
       <c r="D250">
         <v>804</v>
       </c>
-    </row>
-    <row r="251" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E250" s="5" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="251" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B251" s="3" t="s">
         <v>263</v>
       </c>
@@ -5754,8 +7011,11 @@
       <c r="D251">
         <v>805</v>
       </c>
-    </row>
-    <row r="252" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E251" s="5" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="252" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B252" s="3" t="s">
         <v>264</v>
       </c>
@@ -5765,8 +7025,11 @@
       <c r="D252">
         <v>806</v>
       </c>
-    </row>
-    <row r="253" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E252" s="5" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="253" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B253" s="3" t="s">
         <v>265</v>
       </c>
@@ -5776,8 +7039,11 @@
       <c r="D253">
         <v>807</v>
       </c>
-    </row>
-    <row r="254" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E253" s="5" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="254" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B254" s="3" t="s">
         <v>266</v>
       </c>
@@ -5787,8 +7053,11 @@
       <c r="D254">
         <v>808</v>
       </c>
-    </row>
-    <row r="255" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E254" s="5" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="255" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B255" s="3" t="s">
         <v>267</v>
       </c>
@@ -5798,8 +7067,11 @@
       <c r="D255">
         <v>809</v>
       </c>
-    </row>
-    <row r="256" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E255" s="5" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="256" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B256" s="3" t="s">
         <v>268</v>
       </c>
@@ -5809,8 +7081,11 @@
       <c r="D256">
         <v>810</v>
       </c>
-    </row>
-    <row r="257" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E256" s="5" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="257" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B257" s="3" t="s">
         <v>269</v>
       </c>
@@ -5820,8 +7095,11 @@
       <c r="D257">
         <v>811</v>
       </c>
-    </row>
-    <row r="258" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E257" s="5" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="258" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B258" s="3" t="s">
         <v>270</v>
       </c>
@@ -5831,8 +7109,11 @@
       <c r="D258">
         <v>812</v>
       </c>
-    </row>
-    <row r="259" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E258" s="5" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="259" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B259" s="3" t="s">
         <v>271</v>
       </c>
@@ -5842,8 +7123,11 @@
       <c r="D259">
         <v>813</v>
       </c>
-    </row>
-    <row r="260" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E259" s="5" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="260" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B260" s="3" t="s">
         <v>272</v>
       </c>
@@ -5853,8 +7137,11 @@
       <c r="D260">
         <v>814</v>
       </c>
-    </row>
-    <row r="261" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E260" s="5" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="261" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B261" s="3" t="s">
         <v>273</v>
       </c>
@@ -5864,8 +7151,11 @@
       <c r="D261">
         <v>815</v>
       </c>
-    </row>
-    <row r="262" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E261" s="5" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="262" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B262" s="3" t="s">
         <v>274</v>
       </c>
@@ -5875,8 +7165,11 @@
       <c r="D262">
         <v>816</v>
       </c>
-    </row>
-    <row r="263" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E262" s="5" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="263" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B263" s="3" t="s">
         <v>275</v>
       </c>
@@ -5886,6 +7179,54 @@
       <c r="D263">
         <v>817</v>
       </c>
+      <c r="E263" s="5" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="264" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E264" s="5"/>
+    </row>
+    <row r="265" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E265" s="5"/>
+    </row>
+    <row r="266" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E266" s="5"/>
+    </row>
+    <row r="267" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E267" s="5"/>
+    </row>
+    <row r="268" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E268" s="5"/>
+    </row>
+    <row r="269" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E269" s="5"/>
+    </row>
+    <row r="270" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E270" s="5"/>
+    </row>
+    <row r="271" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E271" s="5"/>
+    </row>
+    <row r="272" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E272" s="5"/>
+    </row>
+    <row r="273" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E273" s="5"/>
+    </row>
+    <row r="274" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E274" s="5"/>
+    </row>
+    <row r="275" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E275" s="5"/>
+    </row>
+    <row r="276" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E276" s="5"/>
+    </row>
+    <row r="277" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E277" s="5"/>
+    </row>
+    <row r="278" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E278" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
